--- a/src/6_functional_interaction/results/clustering_nde75ntotal50_reg_and_downstream_annotated.xlsx
+++ b/src/6_functional_interaction/results/clustering_nde75ntotal50_reg_and_downstream_annotated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rzhu/Gladstone Dropbox/Ronghui Zhu/GRNPerturbSeq/4_codes/GWT_perturbseq_analysis/src/6_functional_interaction/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C308A1B1-BFBE-9242-8923-EC9B79572893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E57B5E-6A40-BC4A-B1DC-459FE310D0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{AE44F2CC-892D-F147-8D31-099354A290F9}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="1804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="1805">
   <si>
     <t>cluster</t>
   </si>
@@ -5435,6 +5435,9 @@
   </si>
   <si>
     <t>Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>Nuclear RNA decay</t>
   </si>
 </sst>
 </file>
@@ -6278,15 +6281,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA81DAE6-2760-9145-ACBD-851BF9FC920B}">
   <dimension ref="A1:CD113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A46" sqref="A46"/>
-      <selection pane="topRight" activeCell="A110" sqref="A110:XFD113"/>
+      <selection pane="topRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:82" x14ac:dyDescent="0.2">
@@ -11507,7 +11511,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>1061</v>
+        <v>1804</v>
       </c>
       <c r="C26">
         <v>0.21219951007989399</v>
@@ -29856,6 +29860,18 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O1048576">
     <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:U1048576">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -29950,18 +29966,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U1:U1048576">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>